--- a/Data/Output/doc07_report_10k.xlsx
+++ b/Data/Output/doc07_report_10k.xlsx
@@ -38,7 +38,7 @@
     <x:t>65-0958798</x:t>
   </x:si>
   <x:si>
-    <x:t>5619393300</x:t>
+    <x:t>01152019for</x:t>
   </x:si>
   <x:si>
     <x:t>55329.00</x:t>
@@ -47,7 +47,8 @@
     <x:t>650958800.00</x:t>
   </x:si>
   <x:si>
-    <x:t>5619394000.00</x:t>
+    <x:t>Key,Value
+"Value",""</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -93,14 +94,21 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -476,7 +484,7 @@
       <x:c r="C2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="D2" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
